--- a/output/work_table_1.xlsx
+++ b/output/work_table_1.xlsx
@@ -12247,7 +12247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE52"/>
+  <dimension ref="A1:AE56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17617,6 +17617,398 @@
       </c>
       <c r="AE52" t="inlineStr"/>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>418</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45472</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://nieruchomosci.gratka.pl/nieruchomosci/mieszkanie-lodz-gorna-zbaraska/ob/35045501</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://nieruchomosci.gratka.pl/nieruchomosci/mieszkanie-lodz-gorna-zbaraska/ob/35045501</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>zbaraska</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Dąbrowa</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Dąbrowa</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>NIE</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>500176119</v>
+      </c>
+      <c r="L53" t="n">
+        <v>270000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>7269.789983844911</v>
+      </c>
+      <c r="N53" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2+k</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Nie da się zamieszkać</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>&gt;34 &amp; &lt;=46</t>
+        </is>
+      </c>
+      <c r="Y53" t="n">
+        <v>7157.52021167168</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>222120.8618770203</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-47879.1381229797</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>7157.52021167168</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>222120.8618770203</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-47879.1381229797</v>
+      </c>
+      <c r="AE53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>432</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/do-remontu-zamkniete-osiedle-balkon-3-pokoje-ID4rl0X.html</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.otodom.pl/pl/oferta/do-remontu-zamkniete-osiedle-balkon-3-pokoje-ID4rl0X.html</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Bałuty</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Bałuty blisko centrum</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>NIE</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>500268144</v>
+      </c>
+      <c r="L54" t="n">
+        <v>366000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>6962.145710481263</v>
+      </c>
+      <c r="N54" t="n">
+        <v>52.57</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>3+k</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Nie da się zamieszkać</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>&gt;46</t>
+        </is>
+      </c>
+      <c r="Y54" t="n">
+        <v>7053.494701224314</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>321095.900902739</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-44904.09909726103</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>6996.850932232565</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>318246.3669927904</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-47753.63300720957</v>
+      </c>
+      <c r="AE54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>455</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://nieruchomosci.gratka.pl/nieruchomosci/mieszkanie-lodz-widzew/ob/35100139</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://nieruchomosci.gratka.pl/nieruchomosci/mieszkanie-lodz-widzew/ob/35100139</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Widzew</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Widzew blisko centrum</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>NIE</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>793369887</v>
+      </c>
+      <c r="L55" t="n">
+        <v>345000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>7040.816326530612</v>
+      </c>
+      <c r="N55" t="n">
+        <v>49</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>3+k</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Nie da się zamieszkać</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>&gt;46</t>
+        </is>
+      </c>
+      <c r="Y55" t="n">
+        <v>7233.642850746027</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>305788.0379775649</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-39211.96202243509</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>7183.463375514376</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>303435.1247848846</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-41564.87521511537</v>
+      </c>
+      <c r="AE55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>458</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-lodz-gorna-juliusza-kossaka-37m2-mzn2044284960</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-lodz-gorna-juliusza-kossaka-37m2-mzn2044284960</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>kossaka</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Dąbrowa</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Dąbrowa</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>NIE</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>516716153</v>
+      </c>
+      <c r="L56" t="n">
+        <v>269000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>7270.27027027027</v>
+      </c>
+      <c r="N56" t="n">
+        <v>37</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2+k</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Nie da się zamieszkać</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>&gt;34 &amp; &lt;=46</t>
+        </is>
+      </c>
+      <c r="Y56" t="n">
+        <v>7157.52021167168</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>221175.3567768921</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-47824.64322310794</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>7157.52021167168</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>221175.3567768921</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-47824.64322310794</v>
+      </c>
+      <c r="AE56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
